--- a/Resources/Longitude_Latitude_Postcode.xlsx
+++ b/Resources/Longitude_Latitude_Postcode.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamas\Desktop\Classwork\Project_1\bootcamp_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamas\Desktop\Classwork\Project_1\bootcamp_project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC1D5EA-2B4F-4757-968A-62A952A2D275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8D9B8-6E7D-4E0D-A2EB-66B229893DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23385" yWindow="750" windowWidth="21360" windowHeight="19875" xr2:uid="{E2674160-C2AE-446A-99D1-0A490C3F9EE4}"/>
+    <workbookView xWindow="4380" yWindow="4650" windowWidth="17130" windowHeight="13215" xr2:uid="{E2674160-C2AE-446A-99D1-0A490C3F9EE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$3203</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -11755,13 +11758,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -12080,31 +12081,31 @@
   <dimension ref="A1:E3203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3204" sqref="E3204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3883</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>3884</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>3885</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3886</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3887</v>
       </c>
     </row>
@@ -16199,10 +16200,10 @@
         <v>2</v>
       </c>
       <c r="D242">
-        <v>-38.18</v>
+        <v>-37.786999999999999</v>
       </c>
       <c r="E242">
-        <v>144.47</v>
+        <v>145.19499999999999</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -17559,10 +17560,10 @@
         <v>2</v>
       </c>
       <c r="D322">
-        <v>-36.99</v>
+        <v>-37.838000000000001</v>
       </c>
       <c r="E322">
-        <v>144.06</v>
+        <v>144.99100000000001</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -17576,10 +17577,10 @@
         <v>2</v>
       </c>
       <c r="D323">
-        <v>-36.99</v>
+        <v>-37.838000000000001</v>
       </c>
       <c r="E323">
-        <v>144.06</v>
+        <v>144.99100000000001</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -17593,10 +17594,10 @@
         <v>2</v>
       </c>
       <c r="D324">
-        <v>-36.99</v>
+        <v>-37.838000000000001</v>
       </c>
       <c r="E324">
-        <v>144.06</v>
+        <v>144.99100000000001</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -54211,10 +54212,10 @@
         <v>2</v>
       </c>
       <c r="D2478">
-        <v>-38.380000000000003</v>
+        <v>-37.591000000000001</v>
       </c>
       <c r="E2478">
-        <v>144.81</v>
+        <v>145.005</v>
       </c>
     </row>
     <row r="2479" spans="1:5" x14ac:dyDescent="0.25">
@@ -66543,6 +66544,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E3203" xr:uid="{DE90B68A-807A-4E1A-B7C4-21E6A480A89C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
